--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1240146.124980816</v>
+        <v>1232450.890131685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6950106.282414486</v>
+        <v>6970360.774383799</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1096505.173366154</v>
+        <v>1116356.600945278</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11131492.71138697</v>
+        <v>11148366.90726912</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50.04985889944329</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.50623107476266</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>173.6739876358789</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>109.4422623037129</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>146.279322581462</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>85.88160312186136</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
-        <v>109.4633146548621</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>274.487665874544</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>243.2391485592458</v>
+        <v>156.1422350450065</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>56.27259203479552</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>316.0687887395582</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>202.0712972034715</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.23923247032592</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492386</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>39.36551728471368</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>70.70607604584265</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>12.36155726322564</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.2687961020394</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>59.90320919298811</v>
       </c>
       <c r="E25" t="n">
-        <v>77.31354443380407</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>51.0656117338194</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>50.75000975614303</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>59.90320919298811</v>
+        <v>14.54306763486885</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>131.6653792309037</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.241951510622</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>217.0914199928478</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>176.7697821123577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>1.957908551559784</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>7.906645607737318</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>14.33482487428052</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.15339550871941</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>17.41534444049578</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>178.698525653233</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.9083821604497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>529.4077037011218</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>529.4077037011218</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>529.4077037011218</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>118.4217989115143</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>104.4983948501052</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>104.4983948501052</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2686.53673639725</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2686.53673639725</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2686.53673639725</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2686.53673639725</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2355.473849053679</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2355.473849053679</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.008090792599</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>966.622729332398</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3596263316971</v>
+        <v>608.3570307256475</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>222.5687781274033</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>215.6232773781998</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>201.6998733167907</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>201.6998733167907</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951864</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1646.746562480845</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1646.746562480845</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1288.480863874094</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>902.6926112758501</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>491.7067064862426</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.346402544967</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>2068.604294099372</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1699.64177715896</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1341.376078552209</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>955.5878259539652</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>544.6019211643577</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>276.4117032078483</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>610.2310768976947</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1213.275771835669</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2191.826074665497</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>3171.578346892144</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3674.550817771481</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4069.325184128659</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4317.611545884341</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4376.628612441144</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4266.337943968239</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4060.360196352461</v>
       </c>
       <c r="U11" t="n">
-        <v>3079.909711953368</v>
+        <v>3902.64076701407</v>
       </c>
       <c r="V11" t="n">
-        <v>3079.909711953368</v>
+        <v>3571.577879670499</v>
       </c>
       <c r="W11" t="n">
-        <v>3079.909711953368</v>
+        <v>3218.809224400385</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2845.343466139305</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2455.204134163494</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>962.5643102977474</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>788.1112810166204</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>639.1768713553693</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>479.9394163499137</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>333.4048583767988</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>197.0417582094174</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>106.5398638472849</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>181.20984173944</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2586.07399834998</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2456.491758435975</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2263.848758113831</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1546.391446288302</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1338.539946082769</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1130.779647317815</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>944.9312996331658</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>775.995116705259</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>625.8784772929232</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>477.9653837105301</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>331.0754362126197</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>331.0754362126197</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>184.8582494304775</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>132.6552046957584</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>336.6423876446348</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>653.2021860931309</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1693.630515699245</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1404.213345662285</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.372343606936</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1126.579764463406</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2373.207824949186</v>
+        <v>1972.793246711599</v>
       </c>
       <c r="C14" t="n">
-        <v>2004.245308008774</v>
+        <v>1603.830729771187</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.979609402024</v>
+        <v>1245.565031164437</v>
       </c>
       <c r="E14" t="n">
-        <v>1260.191356803779</v>
+        <v>859.7767785661922</v>
       </c>
       <c r="F14" t="n">
-        <v>849.2054520141719</v>
+        <v>448.7908737765846</v>
       </c>
       <c r="G14" t="n">
-        <v>434.1330018591684</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="H14" t="n">
-        <v>136.5494014679356</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I14" t="n">
-        <v>94.55250270740432</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J14" t="n">
-        <v>450.8372826867828</v>
+        <v>276.4117032078483</v>
       </c>
       <c r="K14" t="n">
-        <v>1105.560614822082</v>
+        <v>610.2310768976947</v>
       </c>
       <c r="L14" t="n">
-        <v>1556.594828070491</v>
+        <v>1061.265290146104</v>
       </c>
       <c r="M14" t="n">
-        <v>2090.126732742416</v>
+        <v>1814.833895215379</v>
       </c>
       <c r="N14" t="n">
-        <v>2636.905549801198</v>
+        <v>2794.586167442026</v>
       </c>
       <c r="O14" t="n">
-        <v>3431.715523183227</v>
+        <v>3674.550817771481</v>
       </c>
       <c r="P14" t="n">
-        <v>4145.070610630172</v>
+        <v>4069.325184128659</v>
       </c>
       <c r="Q14" t="n">
-        <v>4603.54881313916</v>
+        <v>4317.611545884341</v>
       </c>
       <c r="R14" t="n">
-        <v>4727.625135370216</v>
+        <v>4376.628612441144</v>
       </c>
       <c r="S14" t="n">
-        <v>4617.33446689731</v>
+        <v>4266.337943968239</v>
       </c>
       <c r="T14" t="n">
-        <v>4411.356719281533</v>
+        <v>4060.360196352461</v>
       </c>
       <c r="U14" t="n">
-        <v>4207.244297863885</v>
+        <v>3806.829719626297</v>
       </c>
       <c r="V14" t="n">
-        <v>3876.181410520314</v>
+        <v>3475.766832282726</v>
       </c>
       <c r="W14" t="n">
-        <v>3523.4127552502</v>
+        <v>3122.998177012612</v>
       </c>
       <c r="X14" t="n">
-        <v>3149.94699698912</v>
+        <v>2749.532418751532</v>
       </c>
       <c r="Y14" t="n">
-        <v>2759.807665013308</v>
+        <v>2359.39308677572</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>969.5842407563295</v>
+        <v>962.5643102977479</v>
       </c>
       <c r="C15" t="n">
-        <v>795.1312114752025</v>
+        <v>788.1112810166209</v>
       </c>
       <c r="D15" t="n">
-        <v>646.1968018139512</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E15" t="n">
-        <v>486.9593468084958</v>
+        <v>479.9394163499142</v>
       </c>
       <c r="F15" t="n">
-        <v>340.4247888353807</v>
+        <v>333.4048583767992</v>
       </c>
       <c r="G15" t="n">
-        <v>204.0616886679988</v>
+        <v>197.041758209418</v>
       </c>
       <c r="H15" t="n">
-        <v>113.5597943058663</v>
+        <v>106.5398638472857</v>
       </c>
       <c r="I15" t="n">
-        <v>94.55250270740432</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J15" t="n">
-        <v>188.2297721980216</v>
+        <v>181.2098417394404</v>
       </c>
       <c r="K15" t="n">
-        <v>426.4939711783688</v>
+        <v>419.4740407197875</v>
       </c>
       <c r="L15" t="n">
-        <v>793.1921314910342</v>
+        <v>786.1722010324529</v>
       </c>
       <c r="M15" t="n">
-        <v>1240.46845671335</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N15" t="n">
-        <v>1713.991500267804</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O15" t="n">
-        <v>2124.952779685859</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P15" t="n">
-        <v>2435.452371161962</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q15" t="n">
-        <v>2593.093928808562</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R15" t="n">
-        <v>2592.949575401077</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S15" t="n">
-        <v>2463.511688894557</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T15" t="n">
-        <v>2270.868688572413</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U15" t="n">
-        <v>2042.800841706828</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V15" t="n">
-        <v>1807.648733475086</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W15" t="n">
-        <v>1553.411376746884</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X15" t="n">
-        <v>1345.559876541351</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y15" t="n">
-        <v>1137.799577776397</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170.0653223588426</v>
+        <v>780.0056862580407</v>
       </c>
       <c r="C16" t="n">
-        <v>170.0653223588426</v>
+        <v>611.0695033301338</v>
       </c>
       <c r="D16" t="n">
-        <v>170.0653223588426</v>
+        <v>460.952863917798</v>
       </c>
       <c r="E16" t="n">
-        <v>170.0653223588426</v>
+        <v>402.1253563720143</v>
       </c>
       <c r="F16" t="n">
-        <v>170.0653223588426</v>
+        <v>255.2354088741039</v>
       </c>
       <c r="G16" t="n">
-        <v>170.0653223588426</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="H16" t="n">
-        <v>170.0653223588426</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="I16" t="n">
-        <v>94.55250270740432</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J16" t="n">
-        <v>139.6751351543399</v>
+        <v>132.6552046957584</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6623181032163</v>
+        <v>336.6423876446348</v>
       </c>
       <c r="L16" t="n">
-        <v>660.2221165517124</v>
+        <v>653.2021860931309</v>
       </c>
       <c r="M16" t="n">
-        <v>1004.379162151261</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N16" t="n">
-        <v>1345.787538857126</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O16" t="n">
-        <v>1645.117137777539</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P16" t="n">
-        <v>1877.724638211199</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q16" t="n">
-        <v>1955.334934363714</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R16" t="n">
-        <v>1865.504477121242</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S16" t="n">
-        <v>1673.818592948068</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="T16" t="n">
-        <v>1452.051977517594</v>
+        <v>1726.548388474658</v>
       </c>
       <c r="U16" t="n">
-        <v>1162.949110643237</v>
+        <v>1726.548388474658</v>
       </c>
       <c r="V16" t="n">
-        <v>908.2646224373506</v>
+        <v>1471.863900268771</v>
       </c>
       <c r="W16" t="n">
-        <v>618.84745240039</v>
+        <v>1182.446730231811</v>
       </c>
       <c r="X16" t="n">
-        <v>390.8579015023727</v>
+        <v>1182.446730231811</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.0653223588426</v>
+        <v>961.6541510882804</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5597,7 +5597,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.8098170227823</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>675.8736340948755</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
-        <v>525.7569946825397</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>525.7569946825397</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>378.8670471846293</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V19" t="n">
-        <v>1764.65758193153</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W19" t="n">
-        <v>1475.240411894569</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X19" t="n">
-        <v>1247.250860996552</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y19" t="n">
-        <v>1026.458281853022</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3064.159238261322</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C22" t="n">
-        <v>3064.159238261322</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D22" t="n">
-        <v>3064.159238261322</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
-        <v>3064.159238261322</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4759.598393023722</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4567.912508850548</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>4346.145893420074</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>4057.043026545717</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V22" t="n">
-        <v>3802.35853833983</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W22" t="n">
-        <v>3512.94136830287</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X22" t="n">
-        <v>3284.951817404852</v>
+        <v>962.4856415333643</v>
       </c>
       <c r="Y22" t="n">
-        <v>3064.159238261322</v>
+        <v>741.6930623898342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -6004,13 +6004,13 @@
         <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3314.41660243073</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C25" t="n">
-        <v>3145.480419502823</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D25" t="n">
-        <v>2995.363780090488</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763413</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763413</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>4488.948855545364</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>4234.264367339478</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W25" t="n">
-        <v>3944.847197302517</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X25" t="n">
-        <v>3716.8576464045</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y25" t="n">
-        <v>3496.06506726097</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>388.5878045036231</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>722.4071781934695</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175503</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.59632740215</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731604</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4302.335344088782</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3603.519469305087</v>
+        <v>465.8764929059532</v>
       </c>
       <c r="C28" t="n">
-        <v>3434.58328637718</v>
+        <v>296.9403099780463</v>
       </c>
       <c r="D28" t="n">
-        <v>3284.466646964844</v>
+        <v>146.8236705657106</v>
       </c>
       <c r="E28" t="n">
-        <v>3136.553553382451</v>
+        <v>146.8236705657106</v>
       </c>
       <c r="F28" t="n">
-        <v>3084.972127388694</v>
+        <v>146.8236705657106</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U28" t="n">
-        <v>4778.051722419721</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V28" t="n">
-        <v>4523.367234213834</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W28" t="n">
-        <v>4233.950064176874</v>
+        <v>1096.30708777774</v>
       </c>
       <c r="X28" t="n">
-        <v>4005.960513278857</v>
+        <v>868.3175368797231</v>
       </c>
       <c r="Y28" t="n">
-        <v>3785.167934135327</v>
+        <v>647.524957736193</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,16 +6448,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,22 +6466,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>753.1470291944256</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1617.66584484778</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2151.197749519704</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6554,16 +6554,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>492.7083461157117</v>
+        <v>741.6930623898342</v>
       </c>
       <c r="C31" t="n">
-        <v>323.7721631878048</v>
+        <v>572.7568794619273</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
         <v>263.2638710736754</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.55611102446</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.138940987499</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894816</v>
+        <v>962.4856415333643</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.3568109459515</v>
+        <v>741.6930623898342</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>323.52854882937</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427193</v>
+        <v>657.3479225192164</v>
       </c>
       <c r="L32" t="n">
         <v>1521.866738172571</v>
@@ -6791,16 +6791,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1823.348133548235</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258583</v>
+        <v>1534.245266673878</v>
       </c>
       <c r="V34" t="n">
-        <v>1453.060509258583</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="W34" t="n">
-        <v>1453.060509258583</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X34" t="n">
-        <v>1453.060509258583</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.82776704361</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102191</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7128,19 +7128,19 @@
         <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104703</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898816</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W37" t="n">
-        <v>1701.658977898816</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X37" t="n">
-        <v>1523.103642431788</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,19 +7177,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>814.7290857654814</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C40" t="n">
-        <v>645.7929028375745</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D40" t="n">
-        <v>495.6762634252387</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
-        <v>347.7631698428456</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>200.8732223449353</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.576850674229</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V40" t="n">
-        <v>1734.576850674229</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.159680637269</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X40" t="n">
-        <v>1217.170129739251</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y40" t="n">
-        <v>996.3775505957211</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2083.083915184503</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>1714.121398244092</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1355.855699637341</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>970.067447039097</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>559.0815422494895</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>144.009092094486</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>443.8173522282013</v>
       </c>
       <c r="K41" t="n">
-        <v>932.5990189467745</v>
+        <v>777.6367259180479</v>
       </c>
       <c r="L41" t="n">
-        <v>1797.117834600129</v>
+        <v>1642.155541571403</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272054</v>
+        <v>2620.705844401231</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3167.484661460014</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3670.457132339351</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4069.325184128659</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4317.611545884341</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4376.628612441144</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4376.628612441144</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4170.650864825366</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>3917.120388099202</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3586.057500755631</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3233.288845485517</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>2859.823087224437</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2469.683755248625</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>962.5643102977482</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>788.1112810166212</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>639.1768713553699</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>479.9394163499144</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>333.4048583767993</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>197.0417582094174</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>106.5398638472849</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>181.2098417394402</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.542498853856</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="C43" t="n">
-        <v>879.542498853856</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>132.6552046957584</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>336.6423876446348</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>653.2021860931309</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1772.934307668288</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1551.167692237814</v>
       </c>
       <c r="U43" t="n">
-        <v>1764.65758193153</v>
+        <v>1262.064825363458</v>
       </c>
       <c r="V43" t="n">
-        <v>1509.973093725643</v>
+        <v>1007.380337157571</v>
       </c>
       <c r="W43" t="n">
-        <v>1509.973093725643</v>
+        <v>717.96316712061</v>
       </c>
       <c r="X43" t="n">
-        <v>1281.983542827626</v>
+        <v>489.9736162225927</v>
       </c>
       <c r="Y43" t="n">
-        <v>1061.190963684096</v>
+        <v>269.1810370790625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>1972.793246711599</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>1603.830729771187</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1245.565031164437</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>859.7767785661922</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551618</v>
+        <v>842.1855215555904</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>427.1130714005869</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>276.4117032078483</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>610.2310768976947</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1474.749892551049</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2453.300195380878</v>
       </c>
       <c r="N44" t="n">
-        <v>2883.993034926781</v>
+        <v>3171.578346892144</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3674.550817771481</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4069.325184128659</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4317.611545884341</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4376.628612441144</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4266.337943968239</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4060.360196352461</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>3806.829719626297</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3475.766832282726</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3122.998177012612</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>2749.532418751532</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2359.39308677572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>962.5643102977482</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>788.1112810166212</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>639.1768713553699</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>479.9394163499144</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>333.4048583767993</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>197.0417582094174</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>106.5398638472849</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>181.2098417394402</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>243.4741280307875</v>
+        <v>553.4753420869758</v>
       </c>
       <c r="C46" t="n">
-        <v>243.4741280307875</v>
+        <v>384.539159159069</v>
       </c>
       <c r="D46" t="n">
-        <v>243.4741280307875</v>
+        <v>234.4225197467332</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>234.4225197467332</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>87.53257224882287</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>132.6552046957584</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>336.6423876446348</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>653.2021860931309</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>997.3592316926799</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1767.81144263924</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1546.044827208766</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1256.94196033441</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1002.257472128523</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1002.257472128523</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>774.267921230506</v>
       </c>
       <c r="Y46" t="n">
-        <v>243.4741280307875</v>
+        <v>553.4753420869758</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>153.5459411005709</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>222.259293330658</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>294.7853560633249</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704411</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>105.1996354507104</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.3976710547489</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>136.2499899971307</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>39.48321557772738</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>39.48321557772746</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570131</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>4.135035790030713</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>173.2316509621047</v>
       </c>
       <c r="O44" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.756023399656158</v>
+        <v>94.85293691389543</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>169.4370633542416</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>94.85293691389529</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>48.92387475543052</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>88.19473017624325</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491423</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>126.6602909743145</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>147.8785773062521</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>167.4704229187116</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>70.66335656800794</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>88.71226382522426</v>
       </c>
       <c r="E25" t="n">
-        <v>69.1204182127651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>94.35543628911185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.2757985028852</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>88.71226382522426</v>
+        <v>134.0724053833435</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>87.88357004526551</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.34270184147277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276512</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>48.93987327667941</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>165.288912547068</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>158.1191626512909</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25608,7 +25608,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>280.2729395130399</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>71.46207750949294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>389.4607013012156</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>11.07049967820893</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.67627119164513</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>805612.7903367502</v>
+        <v>915478.4086849394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952168.8119435989</v>
+        <v>915478.4086849394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957440.0089297246</v>
+        <v>915478.4086849394</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957440.0089297245</v>
+        <v>915478.4086849396</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>438818.4386214743</v>
       </c>
       <c r="F2" t="n">
-        <v>454404.8091724748</v>
+        <v>438818.4386214742</v>
       </c>
       <c r="G2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="H2" t="n">
+        <v>456644.0549200306</v>
+      </c>
+      <c r="I2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="I2" t="n">
-        <v>456644.0549200309</v>
-      </c>
       <c r="J2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200306</v>
       </c>
       <c r="K2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="L2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="M2" t="n">
         <v>456644.0549200308</v>
@@ -26352,10 +26352,10 @@
         <v>456644.0549200308</v>
       </c>
       <c r="O2" t="n">
-        <v>456644.054920031</v>
+        <v>438818.4386214743</v>
       </c>
       <c r="P2" t="n">
-        <v>456644.0549200309</v>
+        <v>438818.4386214744</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503536</v>
+        <v>697413.3866606108</v>
       </c>
       <c r="F3" t="n">
-        <v>100428.7464736742</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3455.292777865948</v>
+        <v>27506.01327461979</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254672</v>
+        <v>104633.2536641694</v>
       </c>
       <c r="N3" t="n">
-        <v>85848.09611538779</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3033.802150012653</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>19507.93704417931</v>
       </c>
       <c r="F4" t="n">
-        <v>24389.41657777012</v>
+        <v>19507.93704417931</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499385</v>
@@ -26444,22 +26444,22 @@
         <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499383</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>19507.93704417931</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>19507.93704417931</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>90281.88698203929</v>
       </c>
       <c r="F5" t="n">
-        <v>95617.03413056118</v>
+        <v>90281.88698203929</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>90281.88698203929</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>90281.88698203929</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337225</v>
+        <v>-401792.4455337224</v>
       </c>
       <c r="C6" t="n">
-        <v>188175.433680822</v>
+        <v>188175.4336808221</v>
       </c>
       <c r="D6" t="n">
-        <v>188175.433680822</v>
+        <v>188175.4336808219</v>
       </c>
       <c r="E6" t="n">
-        <v>-306010.844077181</v>
+        <v>-369831.7537632025</v>
       </c>
       <c r="F6" t="n">
-        <v>233969.6119904693</v>
+        <v>327581.6328974084</v>
       </c>
       <c r="G6" t="n">
-        <v>331714.5202134573</v>
+        <v>306991.8448144456</v>
       </c>
       <c r="H6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="I6" t="n">
-        <v>335169.8129913236</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="J6" t="n">
-        <v>158746.5937987303</v>
+        <v>158074.6388964723</v>
       </c>
       <c r="K6" t="n">
-        <v>335169.8129913233</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="L6" t="n">
-        <v>335169.8129913234</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="M6" t="n">
-        <v>296016.3302187766</v>
+        <v>229864.6044248959</v>
       </c>
       <c r="N6" t="n">
-        <v>249321.7168759355</v>
+        <v>334497.8580890654</v>
       </c>
       <c r="O6" t="n">
-        <v>332136.0108413108</v>
+        <v>327581.6328974083</v>
       </c>
       <c r="P6" t="n">
-        <v>335169.8129913234</v>
+        <v>327581.6328974084</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1094.157153110286</v>
       </c>
       <c r="F4" t="n">
-        <v>1181.906283842554</v>
+        <v>1094.157153110286</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1094.157153110286</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1094.157153110286</v>
       </c>
     </row>
   </sheetData>
@@ -26971,13 +26971,13 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>419.8698803557303</v>
       </c>
       <c r="F4" t="n">
-        <v>350.504828440261</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.60664676237644</v>
+        <v>100.3557774946444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>419.8698803557303</v>
       </c>
       <c r="N4" t="n">
-        <v>350.504828440261</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.60664676237644</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>419.8698803557303</v>
       </c>
       <c r="N4" t="n">
-        <v>350.504828440261</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.60664676237644</v>
+        <v>100.3557774946444</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>101.881457345418</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.97217150004905</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>52.03566775315829</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>272.4881077685488</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>5.651993663399253</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>139.8280522671758</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
-        <v>304.3208553659329</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>1.882105749397248</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>11.79420836743373</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33751,7 +33751,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>609.1360554929031</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>761.1804091608848</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>802.838356951544</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552631</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>295.9866364194229</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>355.1919758584683</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>473.4412765525311</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
@@ -36843,16 +36843,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>591.7850509906386</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>230.27021654644</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493451</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37399,7 +37399,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>402.8970220094026</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38019,25 +38019,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>725.5334863750162</v>
       </c>
       <c r="O44" t="n">
-        <v>669.9074050305093</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1232450.890131685</v>
+        <v>1237568.966631844</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383799</v>
+        <v>6950106.282414479</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945278</v>
+        <v>1096505.17336615</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11148366.90726912</v>
+        <v>11131492.71138698</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>114.2199352296376</v>
       </c>
       <c r="I2" t="n">
-        <v>50.04985889944329</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>173.6739876358789</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>25.32051954991854</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>146.279322581462</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>156.1422350450065</v>
+        <v>88.36462695393448</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>54.15253296738605</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>56.27259203479552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>399.529100759227</v>
       </c>
       <c r="G14" t="n">
-        <v>316.0687887395582</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.4334972246859</v>
       </c>
       <c r="E16" t="n">
-        <v>58.23923247032592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.70607604584265</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.36155726322564</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>70.82764119510597</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>59.90320919298811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>68.74868616823339</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.75000975614303</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>95.30935834546611</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.54306763486885</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>32.74060288211892</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>111.9811935083357</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>131.6653792309037</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>217.0914199928478</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>51.11423043338313</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>1.957908551559784</v>
+        <v>160.0403790870783</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>14.33482487428052</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>112.9454894324104</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>17.41534444049578</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>178.698525653233</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.3702206415335</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>529.4077037011218</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>529.4077037011218</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>529.4077037011218</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F2" t="n">
-        <v>118.4217989115143</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G2" t="n">
-        <v>104.4983948501052</v>
+        <v>322.7826297744037</v>
       </c>
       <c r="H2" t="n">
-        <v>104.4983948501052</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1675.109392681467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1284.970060705655</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.58524627281</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C5" t="n">
-        <v>966.622729332398</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="D5" t="n">
-        <v>608.3570307256475</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="E5" t="n">
-        <v>222.5687781274033</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="F5" t="n">
-        <v>215.6232773781998</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>201.6998733167907</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>201.6998733167907</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,16 +4804,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464703</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2068.604294099372</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C11" t="n">
-        <v>1699.64177715896</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1341.376078552209</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>955.5878259539652</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>544.6019211643577</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>129.5294710093542</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5294710093542</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>87.53257224882287</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>276.4117032078483</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>610.2310768976947</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1213.275771835669</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>2191.826074665497</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>3171.578346892144</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3674.550817771481</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4069.325184128659</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4317.611545884341</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.628612441144</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4266.337943968239</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4060.360196352461</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3902.64076701407</v>
+        <v>3126.057954192897</v>
       </c>
       <c r="V11" t="n">
-        <v>3571.577879670499</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="W11" t="n">
-        <v>3218.809224400385</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X11" t="n">
-        <v>2845.343466139305</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y11" t="n">
-        <v>2455.204134163494</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.5643102977474</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>788.1112810166204</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553693</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499137</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094174</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472849</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>87.53257224882287</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>181.20984173944</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197871</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324527</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254769</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.971569809223</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.932849227278</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.432440703381</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2586.07399834998</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2585.929644942496</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.491758435975</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2263.848758113831</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2035.780911248247</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1800.628803016504</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1546.391446288302</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1338.539946082769</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1130.779647317815</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.9312996331658</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C13" t="n">
-        <v>775.995116705259</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D13" t="n">
-        <v>625.8784772929232</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E13" t="n">
-        <v>477.9653837105301</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>331.0754362126197</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>331.0754362126197</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>184.8582494304775</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>87.53257224882287</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>132.6552046957584</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446348</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>653.2021860931309</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926799</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1338.767608398545</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1638.097207318958</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.704707752617</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1948.315003905132</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1948.315003905132</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1948.315003905132</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1948.315003905132</v>
+        <v>1591.078678422962</v>
       </c>
       <c r="U13" t="n">
-        <v>1948.315003905132</v>
+        <v>1301.975811548605</v>
       </c>
       <c r="V13" t="n">
-        <v>1693.630515699245</v>
+        <v>1301.975811548605</v>
       </c>
       <c r="W13" t="n">
-        <v>1404.213345662285</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.372343606936</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.579764463406</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1972.793246711599</v>
+        <v>2323.789769640691</v>
       </c>
       <c r="C14" t="n">
-        <v>1603.830729771187</v>
+        <v>1954.827252700279</v>
       </c>
       <c r="D14" t="n">
-        <v>1245.565031164437</v>
+        <v>1596.561554093529</v>
       </c>
       <c r="E14" t="n">
-        <v>859.7767785661922</v>
+        <v>1210.773301495284</v>
       </c>
       <c r="F14" t="n">
-        <v>448.7908737765846</v>
+        <v>807.208553253641</v>
       </c>
       <c r="G14" t="n">
-        <v>129.5294710093542</v>
+        <v>392.1361030986375</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5294710093542</v>
+        <v>94.55250270740471</v>
       </c>
       <c r="I14" t="n">
-        <v>87.53257224882287</v>
+        <v>94.55250270740471</v>
       </c>
       <c r="J14" t="n">
-        <v>276.4117032078483</v>
+        <v>283.4316336664301</v>
       </c>
       <c r="K14" t="n">
-        <v>610.2310768976947</v>
+        <v>617.2510073562764</v>
       </c>
       <c r="L14" t="n">
-        <v>1061.265290146104</v>
+        <v>1481.769823009631</v>
       </c>
       <c r="M14" t="n">
-        <v>1814.833895215379</v>
+        <v>2460.320125839459</v>
       </c>
       <c r="N14" t="n">
-        <v>2794.586167442026</v>
+        <v>3440.072398066106</v>
       </c>
       <c r="O14" t="n">
-        <v>3674.550817771481</v>
+        <v>4025.547340700573</v>
       </c>
       <c r="P14" t="n">
-        <v>4069.325184128659</v>
+        <v>4420.321707057751</v>
       </c>
       <c r="Q14" t="n">
-        <v>4317.611545884341</v>
+        <v>4668.608068813433</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.628612441144</v>
+        <v>4727.625135370236</v>
       </c>
       <c r="S14" t="n">
-        <v>4266.337943968239</v>
+        <v>4617.33446689733</v>
       </c>
       <c r="T14" t="n">
-        <v>4060.360196352461</v>
+        <v>4411.356719281553</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.829719626297</v>
+        <v>4157.826242555389</v>
       </c>
       <c r="V14" t="n">
-        <v>3475.766832282726</v>
+        <v>3826.763355211819</v>
       </c>
       <c r="W14" t="n">
-        <v>3122.998177012612</v>
+        <v>3473.994699941704</v>
       </c>
       <c r="X14" t="n">
-        <v>2749.532418751532</v>
+        <v>3100.528941680624</v>
       </c>
       <c r="Y14" t="n">
-        <v>2359.39308677572</v>
+        <v>2710.389609704813</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.5643102977479</v>
+        <v>969.5842407563299</v>
       </c>
       <c r="C15" t="n">
-        <v>788.1112810166209</v>
+        <v>795.1312114752029</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553697</v>
+        <v>646.1968018139517</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499142</v>
+        <v>486.9593468084962</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767992</v>
+        <v>340.4247888353812</v>
       </c>
       <c r="G15" t="n">
-        <v>197.041758209418</v>
+        <v>204.0616886679992</v>
       </c>
       <c r="H15" t="n">
-        <v>106.5398638472857</v>
+        <v>113.5597943058668</v>
       </c>
       <c r="I15" t="n">
-        <v>87.53257224882287</v>
+        <v>94.55250270740471</v>
       </c>
       <c r="J15" t="n">
-        <v>181.2098417394404</v>
+        <v>188.229772198022</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197875</v>
+        <v>426.4939711783691</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324529</v>
+        <v>793.1921314910344</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.448526254769</v>
+        <v>1240.46845671335</v>
       </c>
       <c r="N15" t="n">
-        <v>1706.971569809223</v>
+        <v>1713.991500267805</v>
       </c>
       <c r="O15" t="n">
-        <v>2117.932849227278</v>
+        <v>2124.952779685859</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.432440703381</v>
+        <v>2435.452371161962</v>
       </c>
       <c r="Q15" t="n">
-        <v>2586.073998349981</v>
+        <v>2593.093928808562</v>
       </c>
       <c r="R15" t="n">
-        <v>2585.929644942496</v>
+        <v>2592.949575401078</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2463.511688894558</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2270.868688572413</v>
       </c>
       <c r="U15" t="n">
-        <v>2035.780911248247</v>
+        <v>2042.800841706829</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.628803016504</v>
+        <v>1807.648733475086</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1553.411376746885</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1345.559876541352</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1137.799577776398</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>780.0056862580407</v>
+        <v>672.3742429180179</v>
       </c>
       <c r="C16" t="n">
-        <v>611.0695033301338</v>
+        <v>672.3742429180179</v>
       </c>
       <c r="D16" t="n">
-        <v>460.952863917798</v>
+        <v>535.5727305698504</v>
       </c>
       <c r="E16" t="n">
-        <v>402.1253563720143</v>
+        <v>387.6596369874572</v>
       </c>
       <c r="F16" t="n">
-        <v>255.2354088741039</v>
+        <v>240.7696894895469</v>
       </c>
       <c r="G16" t="n">
-        <v>87.53257224882287</v>
+        <v>240.7696894895469</v>
       </c>
       <c r="H16" t="n">
-        <v>87.53257224882287</v>
+        <v>94.55250270740471</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53257224882287</v>
+        <v>94.55250270740471</v>
       </c>
       <c r="J16" t="n">
-        <v>132.6552046957584</v>
+        <v>139.6751351543402</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446348</v>
+        <v>343.6623181032165</v>
       </c>
       <c r="L16" t="n">
-        <v>653.2021860931309</v>
+        <v>660.2221165517126</v>
       </c>
       <c r="M16" t="n">
-        <v>997.3592316926799</v>
+        <v>1004.379162151262</v>
       </c>
       <c r="N16" t="n">
-        <v>1338.767608398545</v>
+        <v>1345.787538857126</v>
       </c>
       <c r="O16" t="n">
-        <v>1638.097207318958</v>
+        <v>1645.117137777539</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.704707752617</v>
+        <v>1877.724638211199</v>
       </c>
       <c r="Q16" t="n">
-        <v>1948.315003905132</v>
+        <v>1955.334934363713</v>
       </c>
       <c r="R16" t="n">
-        <v>1948.315003905132</v>
+        <v>1955.334934363713</v>
       </c>
       <c r="S16" t="n">
-        <v>1948.315003905132</v>
+        <v>1955.334934363713</v>
       </c>
       <c r="T16" t="n">
-        <v>1726.548388474658</v>
+        <v>1733.568318933239</v>
       </c>
       <c r="U16" t="n">
-        <v>1726.548388474658</v>
+        <v>1444.465452058883</v>
       </c>
       <c r="V16" t="n">
-        <v>1471.863900268771</v>
+        <v>1189.780963852996</v>
       </c>
       <c r="W16" t="n">
-        <v>1182.446730231811</v>
+        <v>900.3637938160352</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.446730231811</v>
+        <v>672.3742429180179</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.6541510882804</v>
+        <v>672.3742429180179</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5524,13 +5524,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.57685067423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.892362468343</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.475192431382</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>962.4856415333647</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750059</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5852,31 +5852,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="D22" t="n">
         <v>410.1538185715858</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.576850674229</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.892362468342</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.475192431382</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>962.4856415333643</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.6930623898342</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L23" t="n">
         <v>1482.778354750621</v>
@@ -6004,37 +6004,37 @@
         <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157117</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.55611102446</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.138940987499</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894816</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459515</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>388.5878045036231</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>722.4071781934695</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>465.8764929059532</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C28" t="n">
-        <v>296.9403099780463</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8236705657106</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>146.8236705657106</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>146.8236705657106</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814701</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1385.724257814701</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>1096.30708777774</v>
+        <v>1191.934399158335</v>
       </c>
       <c r="X28" t="n">
-        <v>868.3175368797231</v>
+        <v>963.9448482603173</v>
       </c>
       <c r="Y28" t="n">
-        <v>647.524957736193</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422545</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6554,16 +6554,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.6930623898342</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="C31" t="n">
-        <v>572.7568794619273</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.576850674229</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468342</v>
+        <v>1442.483399014629</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.475192431382</v>
+        <v>1153.066228977669</v>
       </c>
       <c r="X31" t="n">
-        <v>962.4856415333643</v>
+        <v>925.0766780796513</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.6930623898342</v>
+        <v>704.2840989361212</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>323.52854882937</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K32" t="n">
-        <v>657.3479225192164</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.866738172571</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N32" t="n">
         <v>2602.177459903277</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
         <v>410.1538185715858</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1823.348133548235</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1534.245266673878</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1279.560778467991</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>1279.560778467991</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>1279.560778467991</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.866738172571</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.5269503710301</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C37" t="n">
-        <v>393.5907674431232</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D37" t="n">
-        <v>243.4741280307875</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.059203485665</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.374715279778</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W37" t="n">
-        <v>1192.957545242817</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X37" t="n">
-        <v>964.9679943448</v>
+        <v>962.4856415333643</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.1754152012699</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,19 +7177,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7265,16 +7265,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.0445975595949</v>
+        <v>719.7238607267853</v>
       </c>
       <c r="C40" t="n">
         <v>558.0669121539789</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.892362468343</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.475192431382</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X40" t="n">
-        <v>962.4856415333647</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.6930623898346</v>
+        <v>901.3723255570251</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2083.083915184503</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>1714.121398244092</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1355.855699637341</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>970.067447039097</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>559.0815422494895</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>144.009092094486</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>129.5294710093542</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8173522282013</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>777.6367259180479</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1642.155541571403</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2620.705844401231</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3167.484661460014</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3670.457132339351</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4069.325184128659</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4317.611545884341</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.628612441144</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4376.628612441144</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4170.650864825366</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>3917.120388099202</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3586.057500755631</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3233.288845485517</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2859.823087224437</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2469.683755248625</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>788.1112810166212</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499144</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>197.0417582094174</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394402</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324527</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.53257224882287</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C43" t="n">
-        <v>87.53257224882287</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D43" t="n">
-        <v>87.53257224882287</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="E43" t="n">
-        <v>87.53257224882287</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="F43" t="n">
-        <v>87.53257224882287</v>
+        <v>377.3502240357062</v>
       </c>
       <c r="G43" t="n">
-        <v>87.53257224882287</v>
+        <v>209.6473874104252</v>
       </c>
       <c r="H43" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6423876446348</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1772.934307668288</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1551.167692237814</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1262.064825363458</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1007.380337157571</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>717.96316712061</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>489.9736162225927</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>269.1810370790625</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1972.793246711599</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1603.830729771187</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1245.565031164437</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>859.7767785661922</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>842.1855215555904</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>427.1130714005869</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>129.5294710093542</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I44" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>276.4117032078483</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>610.2310768976947</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1474.749892551049</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2453.300195380878</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3171.578346892144</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3674.550817771481</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4069.325184128659</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4317.611545884341</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.628612441144</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4266.337943968239</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4060.360196352461</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.829719626297</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3475.766832282726</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3122.998177012612</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>2749.532418751532</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2359.39308677572</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.5643102977482</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>788.1112810166212</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553699</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499144</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>197.0417582094174</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394402</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197874</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324527</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>553.4753420869758</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>384.539159159069</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>234.4225197467332</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>234.4225197467332</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>87.53257224882287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446348</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1767.81144263924</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1546.044827208766</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1256.94196033441</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V46" t="n">
-        <v>1002.257472128523</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.257472128523</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X46" t="n">
-        <v>774.267921230506</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y46" t="n">
-        <v>553.4753420869758</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>153.5459411005709</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>222.259293330658</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>83.33583005568744</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>105.1996354507104</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,19 +9883,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>39.48321557772738</v>
+        <v>64.28566532692423</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>39.48321557772746</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>411.0304280899001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>4.135035790030713</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>173.2316509621047</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>94.85293691389543</v>
+        <v>162.6305450049675</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>165.3964163087832</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>169.4370633542416</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.346944982484445</v>
       </c>
       <c r="G14" t="n">
-        <v>94.85293691389529</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.1819757935265</v>
       </c>
       <c r="E16" t="n">
-        <v>88.19473017624325</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.8785773062521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.4704229187116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77.78783182310639</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>88.71226382522426</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>183.3889571555946</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.2757985028852</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.2136399911249</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>134.0724053833435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>219.3970404417091</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.26562759029208</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>87.88357004526551</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>69.12041821276512</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>167.4704229187116</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>165.288912547068</v>
+        <v>7.206442011549484</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>280.2729395130399</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>31.80952548191034</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>389.4607013012156</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>11.07049967820893</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915478.4086849394</v>
+        <v>805612.7903367501</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915478.4086849394</v>
+        <v>952168.8119436011</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297243</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915478.4086849394</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915478.4086849396</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,40 +26322,40 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>438818.4386214743</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="F2" t="n">
-        <v>438818.4386214742</v>
+        <v>454404.8091724757</v>
       </c>
       <c r="G2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="H2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="I2" t="n">
         <v>456644.0549200306</v>
       </c>
-      <c r="I2" t="n">
-        <v>456644.0549200308</v>
-      </c>
       <c r="J2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200307</v>
       </c>
       <c r="K2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="L2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="M2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="N2" t="n">
+        <v>456644.0549200307</v>
+      </c>
+      <c r="O2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="P2" t="n">
         <v>456644.0549200308</v>
-      </c>
-      <c r="O2" t="n">
-        <v>438818.4386214743</v>
-      </c>
-      <c r="P2" t="n">
-        <v>438818.4386214744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.3866606108</v>
+        <v>618960.3159503534</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100428.7464736757</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461979</v>
+        <v>3455.292777864592</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641694</v>
+        <v>39153.4827725465</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85848.09611538905</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3033.802150011436</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>19507.93704417931</v>
+        <v>4890.851381993021</v>
       </c>
       <c r="F4" t="n">
-        <v>19507.93704417931</v>
+        <v>24389.41657777042</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="N4" t="n">
         <v>25090.72367499385</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499385</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499384</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="O4" t="n">
-        <v>19507.93704417931</v>
-      </c>
       <c r="P4" t="n">
-        <v>19507.93704417931</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203929</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203929</v>
+        <v>95617.03413056149</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="O5" t="n">
-        <v>90281.88698203929</v>
-      </c>
       <c r="P5" t="n">
-        <v>90281.88698203929</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401792.4455337224</v>
+        <v>-401792.4455337226</v>
       </c>
       <c r="C6" t="n">
-        <v>188175.4336808221</v>
+        <v>188175.433680822</v>
       </c>
       <c r="D6" t="n">
         <v>188175.4336808219</v>
       </c>
       <c r="E6" t="n">
-        <v>-369831.7537632025</v>
+        <v>-306358.4630069869</v>
       </c>
       <c r="F6" t="n">
-        <v>327581.6328974084</v>
+        <v>233892.6806491659</v>
       </c>
       <c r="G6" t="n">
-        <v>306991.8448144456</v>
+        <v>331647.3247232329</v>
       </c>
       <c r="H6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="I6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010973</v>
       </c>
       <c r="J6" t="n">
-        <v>158074.6388964723</v>
+        <v>158679.3983085045</v>
       </c>
       <c r="K6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="L6" t="n">
-        <v>334497.8580890654</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="M6" t="n">
-        <v>229864.6044248959</v>
+        <v>295949.134728551</v>
       </c>
       <c r="N6" t="n">
-        <v>334497.8580890654</v>
+        <v>249254.5213857083</v>
       </c>
       <c r="O6" t="n">
-        <v>327581.6328974083</v>
+        <v>332068.8153510861</v>
       </c>
       <c r="P6" t="n">
-        <v>327581.6328974084</v>
+        <v>335102.6175010975</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110286</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110286</v>
+        <v>1181.906283842559</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110286</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110286</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557303</v>
+        <v>157.114182647737</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>350.5048284402661</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946444</v>
+        <v>12.6066467623715</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557303</v>
+        <v>157.114182647737</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350.5048284402661</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.60664676237138</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557303</v>
+        <v>157.114182647737</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350.5048284402661</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946444</v>
+        <v>12.6066467623715</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>209.7028375347196</v>
       </c>
       <c r="I2" t="n">
-        <v>101.881457345418</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>52.03566775315829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>381.5555261917929</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.651993663399253</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>1.882105749397248</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492237</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>609.1360554929031</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>761.1804091608848</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>591.3888309439064</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9866364194229</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>591.7850509906386</v>
+        <v>616.5875007398357</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>230.27021654644</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>866.6205424822323</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37791,13 +37791,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>402.8970220094026</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38028,10 +38028,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>725.5334863750162</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
